--- a/data/trans_camb/P16A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,98</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,1; 8,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 8,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 9,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,22; 10,46</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,7; 4,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,44; 10,04</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 8,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,98; 5,31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 7,79</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>54,86%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,53%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,05%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,34; 136,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,39; 126,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,49; 140,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,44; 67,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,91; 33,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,11; 65,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,84; 72,52</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,06; 46,81</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,53; 69,02</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,58</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,57</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,61; 9,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,23; 11,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,59; 15,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,69; 14,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,74; 13,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 10,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,84; 10,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,51; 11,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,13; 11,48</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,68%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,94%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,68%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>67,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,84%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,61%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,69; 127,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>41,29; 158,87</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>46,09; 203,1</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,9; 111,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,23; 104,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,22; 81,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,3; 106,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,56; 110,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,98; 107,06</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,14</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,21</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,78</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,62</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,27</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,52; 4,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 7,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 9,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,24; 15,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 8,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,87; 13,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,79; 8,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 6,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,21; 10,63</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,0%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,62%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,63%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,21%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,99; 41,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 66,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,43; 78,21</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,25; 83,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,33; 44,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,88; 74,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,72; 56,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,65; 39,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,32; 66,59</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,48</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,27</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,93</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,84</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,45</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; 6,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 8,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,21; 13,74</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,55; 13,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,16; 10,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,96; 19,15</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,01; 8,47</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 8,66</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,21; 15,39</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,99%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,41%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,53%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,05%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,28%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,04%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,91; 50,48</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,35; 69,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,19; 105,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,59; 65,63</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 51,67</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,48; 91,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,1; 48,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,75; 50,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,83; 89,19</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,18</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,44</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,4</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,14; 5,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,67; 5,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,39; 13,33</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 13,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,03; 16,84</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,41; 21,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,09; 7,78</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 9,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,53; 14,96</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,31%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,06%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,2%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>44,75%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,45; 29,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,53; 30,35</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,36; 70,26</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,07; 53,23</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,98; 66,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,12; 84,76</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,18; 32,7</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,92; 43,45</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,98; 64,48</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,06</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,47</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,12</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,61</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,2</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,45</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,63</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,59</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 13,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 8,21</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,26; 16,28</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,84; 17,88</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,64; 14,5</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,98; 40,36</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,5; 14,52</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 9,93</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,11; 32,21</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,78%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,62%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,24%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,9%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,61; 72,2</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,18; 45,76</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,46; 91,55</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,88; 52,95</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,27; 41,69</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>54,93; 118,98</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,34; 52,1</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,37; 35,06</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>53,49; 113,54</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,74</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,61</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,23</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,09</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,85</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,84</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,13; 5,82</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,32; 6,78</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,5; 12,05</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,47; 12,01</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,04; 9,4</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,42; 23,15</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,36; 8,26</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,73; 7,64</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,05; 17,45</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,59%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,98%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,27%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,61%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,4%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,97%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,67; 44,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,1; 50,77</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>52,02; 93,19</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,9; 53,08</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,26; 41,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,18; 100,15</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,44; 45,23</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,71; 41,64</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>61,5; 92,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>2,9</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 9,29</t>
+          <t>-2,02; 10,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 10,04</t>
+          <t>-3,29; 10,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 7,79</t>
+          <t>-1,44; 8,0</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>43,85%</t>
+          <t>50,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>15,39%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,05%</t>
+          <t>23,4%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 140,65</t>
+          <t>-24,1; 153,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 65,35</t>
+          <t>-18,51; 64,52</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 69,02</t>
+          <t>-10,57; 70,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,35</t>
+          <t>10,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,81</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>7,93</t>
+          <t>7,49</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 15,03</t>
+          <t>5,34; 16,11</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,49; 10,51</t>
+          <t>-3,65; 9,77</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,13; 11,48</t>
+          <t>2,74; 11,65</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>106,94%</t>
+          <t>117,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>28,3%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>68,61%</t>
+          <t>64,84%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>46,09; 203,1</t>
+          <t>53,83; 216,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,22; 81,95</t>
+          <t>-20,51; 73,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,98; 107,06</t>
+          <t>22,73; 108,65</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>4,75</t>
+          <t>5,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>10,2</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>7,66</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,61; 9,27</t>
+          <t>1,15; 9,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,87; 13,76</t>
+          <t>5,3; 14,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 10,63</t>
+          <t>4,53; 11,07</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>35,0%</t>
+          <t>39,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>47,52%</t>
+          <t>49,56%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>42,21%</t>
+          <t>44,51%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,43; 78,21</t>
+          <t>7,29; 82,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,88; 74,83</t>
+          <t>22,9; 77,65</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,32; 66,59</t>
+          <t>24,16; 69,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,7</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>13,93</t>
+          <t>12,85</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>11,45</t>
+          <t>7,21</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,21; 13,74</t>
+          <t>-8,14; 12,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,96; 19,15</t>
+          <t>6,69; 18,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,21; 15,39</t>
+          <t>-3,73; 13,88</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>58,41%</t>
+          <t>23,76%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>58,28%</t>
+          <t>53,74%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>59,04%</t>
+          <t>37,18%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,19; 105,55</t>
+          <t>-46,8; 87,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>32,48; 91,04</t>
+          <t>27,14; 88,28</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>33,83; 89,19</t>
+          <t>-16,55; 76,04</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>7,76</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>15,47</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>11,47</t>
+          <t>11,63</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,33</t>
+          <t>2,78; 13,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,41; 21,08</t>
+          <t>9,43; 21,19</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,53; 14,96</t>
+          <t>7,72; 15,14</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>35,06%</t>
+          <t>36,81%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>53,17%</t>
+          <t>53,41%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>45,39%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>9,36; 70,26</t>
+          <t>11,0; 73,04</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,12; 84,76</t>
+          <t>29,34; 85,36</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>26,98; 64,48</t>
+          <t>27,4; 64,86</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>8,06</t>
+          <t>10,1</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12,12</t>
+          <t>10,91</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>12,61</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>9,2</t>
+          <t>10,71</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>27,45</t>
+          <t>36,31</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>10,6</t>
+          <t>11,77</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>6,63</t>
+          <t>6,13</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>21,59</t>
+          <t>28,04</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,68; 13,38</t>
+          <t>2,97; 16,23</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 8,21</t>
+          <t>-4,63; 7,47</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>7,26; 16,28</t>
+          <t>5,41; 16,51</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>7,84; 17,88</t>
+          <t>5,8; 19,79</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,64; 14,5</t>
+          <t>3,98; 17,72</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>21,98; 40,36</t>
+          <t>18,64; 58,08</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,5; 14,52</t>
+          <t>6,6; 16,47</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,33; 9,93</t>
+          <t>0,93; 10,59</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>17,11; 32,21</t>
+          <t>14,44; 54,38</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>38,98%</t>
+          <t>60,84%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>16,78%</t>
+          <t>7,64%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>58,62%</t>
+          <t>65,7%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>41,46%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>24,88%</t>
+          <t>33,1%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>74,24%</t>
+          <t>112,21%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>35,29%</t>
+          <t>46,88%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>22,08%</t>
+          <t>24,43%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>71,9%</t>
+          <t>111,72%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>11,61; 72,2</t>
+          <t>14,72; 119,19</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 45,76</t>
+          <t>-24,16; 51,96</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>31,46; 91,55</t>
+          <t>26,27; 123,01</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>19,88; 52,95</t>
+          <t>16,65; 67,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>9,27; 41,69</t>
+          <t>11,27; 62,06</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>54,93; 118,98</t>
+          <t>56,12; 219,52</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>20,34; 52,1</t>
+          <t>23,64; 72,08</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>7,37; 35,06</t>
+          <t>3,48; 46,13</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>53,49; 113,54</t>
+          <t>56,14; 226,93</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>4,91</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>4,95</t>
+          <t>5,95</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>9,74</t>
+          <t>13,78</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>9,61</t>
+          <t>11,35</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>7,23</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>17,09</t>
+          <t>25,36</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>6,15</t>
+          <t>6,75</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>13,84</t>
+          <t>20,53</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,82</t>
+          <t>-3,47; 13,54</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,78</t>
+          <t>-1,28; 14,11</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>7,5; 12,05</t>
+          <t>6,09; 20,62</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,01</t>
+          <t>3,37; 18,28</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,4</t>
+          <t>-0,53; 15,46</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>14,42; 23,15</t>
+          <t>18,25; 31,19</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,26</t>
+          <t>3,04; 14,68</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,64</t>
+          <t>1,18; 12,64</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>12,05; 17,45</t>
+          <t>15,16; 25,8</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>18,64%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>69,98%</t>
+          <t>52,25%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>40,27%</t>
+          <t>27,2%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>30,29%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>71,61%</t>
+          <t>60,78%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>36,12%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>32,4%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>72,97%</t>
+          <t>57,35%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-11,54; 60,44</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-4,16; 63,83</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>19,06; 93,71</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>7,07; 49,16</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-1,29; 40,97</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>39,34; 85,26</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>7,65; 45,3</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>3,21; 38,38</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>37,2; 79,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>3,96</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>4,95</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>8,54</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>9,61</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>7,23</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>18,07</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>6,85</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>6,15</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>13,5</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>2,13; 5,82</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>3,32; 6,78</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>3,38; 11,31</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>7,47; 12,01</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>5,04; 9,4</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>13,59; 28,76</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>5,36; 8,26</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>4,73; 7,64</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>10,1; 20,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>28,43%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>35,59%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>61,35%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>40,27%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>30,29%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>75,7%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>36,12%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>32,4%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>71,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>14,67; 44,85</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>22,1; 50,77</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>52,02; 93,19</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>25,22; 84,56</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>29,9; 53,08</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>20,26; 41,64</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>58,18; 100,15</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>55,99; 122,79</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>27,44; 45,23</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>23,71; 41,64</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>61,5; 92,43</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>52,69; 107,17</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16A02-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A02-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,1; 8,3</t>
+          <t>-0,0; 8,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,25</t>
+          <t>0,24; 8,19</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 10,61</t>
+          <t>-1,53; 11,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 10,46</t>
+          <t>0,01; 10,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,7; 4,92</t>
+          <t>-5,27; 5,03</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 10,35</t>
+          <t>-4,12; 9,67</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,66; 8,1</t>
+          <t>1,0; 7,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 5,31</t>
+          <t>-1,02; 5,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 8,0</t>
+          <t>-1,24; 7,72</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 136,8</t>
+          <t>-0,61; 127,83</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 126,39</t>
+          <t>2,83; 140,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-24,1; 153,2</t>
+          <t>-19,25; 168,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 67,68</t>
+          <t>0,11; 74,45</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,91; 33,25</t>
+          <t>-27,95; 35,8</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 64,52</t>
+          <t>-21,89; 63,72</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,84; 72,52</t>
+          <t>7,36; 71,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 46,81</t>
+          <t>-7,34; 47,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 70,47</t>
+          <t>-9,75; 65,82</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 9,44</t>
+          <t>2,31; 9,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,23; 11,78</t>
+          <t>4,2; 11,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 16,11</t>
+          <t>5,62; 16,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 14,04</t>
+          <t>4,85; 13,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 13,01</t>
+          <t>4,13; 13,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 9,77</t>
+          <t>-3,9; 9,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,84; 10,88</t>
+          <t>4,92; 10,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,51; 11,33</t>
+          <t>5,47; 11,34</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,74; 11,65</t>
+          <t>2,47; 11,21</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>24,69; 127,9</t>
+          <t>18,38; 117,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>41,29; 158,87</t>
+          <t>39,24; 157,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>53,83; 216,8</t>
+          <t>54,48; 211,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>29,9; 111,44</t>
+          <t>29,57; 111,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,23; 104,26</t>
+          <t>22,85; 105,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-20,51; 73,22</t>
+          <t>-23,07; 70,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>37,3; 106,95</t>
+          <t>39,74; 105,53</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>42,56; 110,7</t>
+          <t>41,89; 110,2</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,73; 108,65</t>
+          <t>21,31; 107,35</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 4,74</t>
+          <t>-2,65; 5,2</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 7,68</t>
+          <t>0,11; 7,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 9,83</t>
+          <t>0,86; 9,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>5,24; 15,07</t>
+          <t>5,27; 14,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 8,06</t>
+          <t>-0,94; 8,14</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,3; 14,31</t>
+          <t>5,7; 14,87</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,79; 8,87</t>
+          <t>2,61; 8,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,29</t>
+          <t>0,28; 6,42</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,53; 11,07</t>
+          <t>4,46; 11,2</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 41,26</t>
+          <t>-17,28; 42,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 66,45</t>
+          <t>0,78; 66,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,29; 82,31</t>
+          <t>6,04; 79,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>22,25; 83,18</t>
+          <t>23,45; 78,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 44,92</t>
+          <t>-5,07; 43,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,9; 77,65</t>
+          <t>24,13; 80,43</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,72; 56,11</t>
+          <t>13,76; 55,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1,65; 39,72</t>
+          <t>1,52; 40,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>24,16; 69,93</t>
+          <t>23,99; 71,19</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 6,35</t>
+          <t>-3,01; 5,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,03; 8,78</t>
+          <t>0,02; 8,99</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 12,13</t>
+          <t>-9,08; 11,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 13,75</t>
+          <t>2,29; 13,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 10,53</t>
+          <t>-0,1; 11,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,69; 18,53</t>
+          <t>6,02; 17,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,01; 8,47</t>
+          <t>1,1; 8,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,47; 8,66</t>
+          <t>1,53; 8,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 13,88</t>
+          <t>-4,14; 13,5</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-15,91; 50,48</t>
+          <t>-17,03; 47,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 69,95</t>
+          <t>0,33; 70,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-46,8; 87,64</t>
+          <t>-48,61; 81,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,59; 65,63</t>
+          <t>8,31; 64,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 51,67</t>
+          <t>-0,27; 54,13</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,14; 88,28</t>
+          <t>24,14; 84,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>5,1; 48,82</t>
+          <t>5,1; 45,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>6,75; 50,12</t>
+          <t>7,29; 47,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 76,04</t>
+          <t>-16,91; 73,02</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,14; 5,76</t>
+          <t>-6,3; 5,22</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 5,86</t>
+          <t>-5,07; 7,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,78; 13,74</t>
+          <t>2,68; 13,34</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,27; 13,46</t>
+          <t>-0,77; 12,91</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,03; 16,84</t>
+          <t>3,52; 16,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,43; 21,19</t>
+          <t>9,18; 21,4</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 7,78</t>
+          <t>-0,8; 7,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>1,06; 9,99</t>
+          <t>1,05; 9,99</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>7,72; 15,14</t>
+          <t>7,69; 15,72</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-24,45; 29,8</t>
+          <t>-24,87; 26,98</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-22,53; 30,35</t>
+          <t>-20,3; 36,8</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>11,0; 73,04</t>
+          <t>9,97; 70,05</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,07; 53,23</t>
+          <t>-1,77; 51,77</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>12,98; 66,15</t>
+          <t>11,24; 66,93</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>29,34; 85,36</t>
+          <t>26,78; 85,35</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 32,7</t>
+          <t>-2,9; 33,48</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>3,92; 43,45</t>
+          <t>3,42; 42,75</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>27,4; 64,86</t>
+          <t>27,3; 68,19</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>2,97; 16,23</t>
+          <t>3,19; 17,71</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 7,47</t>
+          <t>-4,11; 7,68</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,41; 16,51</t>
+          <t>4,71; 15,96</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>5,8; 19,79</t>
+          <t>6,39; 20,62</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>3,98; 17,72</t>
+          <t>3,39; 17,3</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>18,64; 58,08</t>
+          <t>18,71; 57,27</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>6,6; 16,47</t>
+          <t>6,75; 16,74</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,93; 10,59</t>
+          <t>1,47; 11,29</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>14,44; 54,38</t>
+          <t>14,38; 50,18</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>14,72; 119,19</t>
+          <t>15,28; 128,09</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-24,16; 51,96</t>
+          <t>-21,56; 55,81</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>26,27; 123,01</t>
+          <t>23,16; 117,24</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16,65; 67,72</t>
+          <t>17,04; 69,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>11,27; 62,06</t>
+          <t>8,98; 60,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>56,12; 219,52</t>
+          <t>55,88; 219,33</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>23,64; 72,08</t>
+          <t>24,05; 72,88</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>3,48; 46,13</t>
+          <t>4,94; 47,84</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>56,14; 226,93</t>
+          <t>54,45; 225,97</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 13,54</t>
+          <t>-3,59; 13,64</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 14,11</t>
+          <t>-1,92; 13,44</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>6,09; 20,62</t>
+          <t>5,87; 20,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,37; 18,28</t>
+          <t>3,55; 19,2</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 15,46</t>
+          <t>0,08; 15,23</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>18,25; 31,19</t>
+          <t>18,86; 32,24</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>3,04; 14,68</t>
+          <t>3,06; 14,44</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>1,18; 12,64</t>
+          <t>0,9; 12,43</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>15,16; 25,8</t>
+          <t>14,99; 25,5</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 60,44</t>
+          <t>-12,19; 61,16</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-4,16; 63,83</t>
+          <t>-6,8; 59,99</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>19,06; 93,71</t>
+          <t>18,07; 94,71</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>7,07; 49,16</t>
+          <t>7,39; 50,8</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 40,97</t>
+          <t>-0,1; 39,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>39,34; 85,26</t>
+          <t>40,34; 87,26</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>7,65; 45,3</t>
+          <t>7,6; 43,6</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>3,21; 38,38</t>
+          <t>2,32; 39,14</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>37,2; 79,06</t>
+          <t>37,71; 79,75</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,82</t>
+          <t>2,17; 5,74</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>3,32; 6,78</t>
+          <t>3,19; 6,7</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>3,38; 11,31</t>
+          <t>3,74; 11,11</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>7,47; 12,01</t>
+          <t>7,53; 11,72</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,4</t>
+          <t>5,0; 9,19</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>13,59; 28,76</t>
+          <t>13,82; 29,23</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,26</t>
+          <t>5,25; 8,21</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>4,73; 7,64</t>
+          <t>4,78; 7,63</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>10,1; 20,27</t>
+          <t>10,07; 20,12</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>14,67; 44,85</t>
+          <t>14,09; 43,93</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>22,1; 50,77</t>
+          <t>21,14; 50,37</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>25,22; 84,56</t>
+          <t>27,65; 84,54</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>29,9; 53,08</t>
+          <t>30,33; 50,89</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>20,26; 41,64</t>
+          <t>20,12; 40,06</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>55,99; 122,79</t>
+          <t>56,71; 123,79</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>27,44; 45,23</t>
+          <t>26,83; 45,22</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>23,71; 41,64</t>
+          <t>24,07; 41,73</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>52,69; 107,17</t>
+          <t>52,09; 105,95</t>
         </is>
       </c>
     </row>
